--- a/Docs/TestCase.xlsx
+++ b/Docs/TestCase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Замечания</t>
   </si>
   <si>
-    <t>Атачмент</t>
-  </si>
-  <si>
     <t>Обычный</t>
   </si>
   <si>
@@ -81,6 +78,42 @@
   </si>
   <si>
     <t>Статус прохождения (passed или failed)</t>
+  </si>
+  <si>
+    <t>Инициировать метод с тестовыми данными, сравнить полученный результат с ожидаемыми значениями</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Вложение</t>
+  </si>
+  <si>
+    <t>В метод create класса EmployeeController передается объект EmployeeCrtDTO со следующими значениями полей:
+firstname = "FirstName";
+lastname = "LastName";
+surname = "surname";
+position = "position";
+account = "account";
+email = "email"</t>
+  </si>
+  <si>
+    <t>В метод update класса EmployeeController передается объект EmployeeUpdDTO со следующими значениями полей:
+id - устанавливается равным id созданной на этапе подготовки к тестировании записи сотрудника
+firstname = "FirstName";
+lastname = "LastName";
+surname = "surname";
+position = "position";
+email = "email"</t>
+  </si>
+  <si>
+    <t>В метод delete класса EmployeeController передается объект Long id, который устанавливается равным id созданной на этапе подготовки к тестировании записи сотрудника</t>
+  </si>
+  <si>
+    <t>Создать запись с новым сотрудником с заполнеными полями firstname и lastname, получить id. Создать объект EmployeeUpdtDTO с заполнеными полями id, firstname, lastname, surname, position, email. Инициировать метод с тестовыми данными, сравнить полученный результат с ожидаемыми значениями.</t>
+  </si>
+  <si>
+    <t>Создать запись с новым сотрудником с заполнеными полями firstname и lastname, получить id. Инициировать метод, проверить изменение статуса сотрудника на DELETED</t>
   </si>
 </sst>
 </file>
@@ -279,13 +312,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,7 +603,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,12 +612,12 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -595,93 +628,111 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
     </row>
